--- a/card_excel/card_excel/card_file.xlsx
+++ b/card_excel/card_excel/card_file.xlsx
@@ -3,25 +3,32 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="等线"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,7 +56,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -390,22 +397,54 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <cols>
+    <col width="41.875" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>{'id': 1, 'name': '呵呵', 'phone': '123', 'QQ': '321', 'Email': '@123'}</t>
+          <t>名片管理系统</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>{'id': 1, 'name': '1', 'phone': '1', 'QQ': '1', 'Email': '1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>{'id': 2, 'name': '2', 'phone': '2', 'QQ': '2', 'Email': '2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>{'id': 3, 'name': '3', 'phone': '3', 'QQ': '3', 'Email': '3'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>{'id': 4, 'name': '4', 'phone': '4', 'QQ': '4', 'Email': '4'}</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/card_excel/card_excel/card_file.xlsx
+++ b/card_excel/card_excel/card_file.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="105" windowWidth="17550" windowHeight="13890" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -397,15 +397,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <cols>
-    <col width="41.875" customWidth="1" min="1" max="1"/>
+    <col width="42.625" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -416,31 +416,18 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>{'id': 1, 'name': '1', 'phone': '1', 'QQ': '1', 'Email': '1'}</t>
-        </is>
+      <c r="A2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>{'id': 2, 'name': '2', 'phone': '2', 'QQ': '2', 'Email': '2'}</t>
-        </is>
+      <c r="A3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>{'id': 3, 'name': '3', 'phone': '3', 'QQ': '3', 'Email': '3'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>{'id': 4, 'name': '4', 'phone': '4', 'QQ': '4', 'Email': '4'}</t>
-        </is>
+      <c r="A4" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/card_excel/card_excel/card_file.xlsx
+++ b/card_excel/card_excel/card_file.xlsx
@@ -397,10 +397,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
@@ -411,23 +411,8 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>名片管理系统</t>
+          <t>{'name': '2', 'phone': '2', 'QQ': '2', 'Email': '2'}</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/card_excel/card_excel/card_file.xlsx
+++ b/card_excel/card_excel/card_file.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="105" windowWidth="17550" windowHeight="13890" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -400,22 +400,14 @@
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <cols>
     <col width="42.625" customWidth="1" min="1" max="1"/>
   </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>{'name': '2', 'phone': '2', 'QQ': '2', 'Email': '2'}</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
